--- a/excell/17.xlsx
+++ b/excell/17.xlsx
@@ -28,49 +28,53 @@
     <t>11E</t>
   </si>
   <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>Понедельн.
-16 Янв.</t>
-  </si>
-  <si>
-    <t>Химия (G1234re213)</t>
-  </si>
-  <si>
-    <t>Физика (ЮН)</t>
-  </si>
-  <si>
-    <t>Химия (Greeeg)</t>
-  </si>
-  <si>
-    <t>Англ.яз. (Ольга)</t>
-  </si>
-  <si>
-    <t>Вторник
-17 Янв.</t>
-  </si>
-  <si>
     <t>Среда
 18 Янв.</t>
   </si>
   <si>
-    <t>География (Гриц)</t>
+    <t>Химия (Greeeg)</t>
   </si>
   <si>
     <t>Четверг
 19 Янв.</t>
   </si>
   <si>
+    <t>Физика (Greeeg)</t>
+  </si>
+  <si>
+    <t>Физика (G1234re213)</t>
+  </si>
+  <si>
     <t>Пяница
 20 Янв.</t>
   </si>
   <si>
     <t>Суббота
 21 Янв.</t>
+  </si>
+  <si>
+    <t>Понедельн.
+22 Янв.</t>
+  </si>
+  <si>
+    <t>Понедельн.
+23 Янв.</t>
+  </si>
+  <si>
+    <t>Вторник
+24 Янв.</t>
+  </si>
+  <si>
+    <t>Среда
+25 Янв.</t>
+  </si>
+  <si>
+    <t>Четверг
+26 Янв.</t>
+  </si>
+  <si>
+    <t>Пяница
+27 Янв.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,16 +445,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="3"/>
+    <col customWidth="1" max="2" min="2" width="2"/>
     <col customWidth="1" max="3" min="3" width="17"/>
     <col customWidth="1" max="4" min="4" width="17"/>
     <col customWidth="1" max="5" min="5" width="17"/>
     <col customWidth="1" max="6" min="6" width="17"/>
-    <col customWidth="1" max="7" min="7" width="17"/>
-    <col customWidth="1" max="8" min="8" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,425 +465,359 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="3" spans="1:6">
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="5" spans="1:6">
+      <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="9" spans="1:6">
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+    </row>
+    <row customHeight="1" ht="32" r="10" spans="1:6">
+      <c r="B10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:8">
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="n"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="16" spans="1:6">
+      <c r="B16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="B4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row customHeight="1" ht="23" r="17" spans="1:6">
+      <c r="B17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="n"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="5" spans="1:8">
-      <c r="B5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="B7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="23" r="8" spans="1:8">
-      <c r="B8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="9" spans="1:8">
-      <c r="B9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="11" spans="1:8">
-      <c r="B11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5" t="n"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="n"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="17" spans="1:8">
-      <c r="B17" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="18" spans="1:8">
-      <c r="B18" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="19" spans="1:8">
-      <c r="B19" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="23" r="20" spans="1:8">
-      <c r="B20" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="21" spans="1:8">
-      <c r="B21" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5" t="n"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="n"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="25" spans="1:8">
-      <c r="B25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="n"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="28" spans="1:8">
-      <c r="B28" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5" t="n"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
+      <c r="B38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="n"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
       <c r="B44" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5" t="n"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="n"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
       <c r="B50" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="B51" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="B52" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="B53" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="B54" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="5" t="n"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="n"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B56" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="B57" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="B58" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="B60" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A56:H56"/>
+  <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A55:F55"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
